--- a/capture_technique_count.xlsx
+++ b/capture_technique_count.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emisilva\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95C6927A-9594-4027-860A-979C67524C27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{500EB6AF-EB86-4656-A720-CB5C798F8A2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28695" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Reference" sheetId="3" r:id="rId1"/>
+    <sheet name="Count" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="45">
   <si>
     <t>Capture Technique</t>
   </si>
@@ -75,6 +76,99 @@
   </si>
   <si>
     <t>WSS (Wireless Sensor System)</t>
+  </si>
+  <si>
+    <t>[42]</t>
+  </si>
+  <si>
+    <t>[92]</t>
+  </si>
+  <si>
+    <t>[95]</t>
+  </si>
+  <si>
+    <t>[81]</t>
+  </si>
+  <si>
+    <t>Beacons and Mobile Node Operate and Antennas</t>
+  </si>
+  <si>
+    <t>[74]</t>
+  </si>
+  <si>
+    <t>[97]</t>
+  </si>
+  <si>
+    <t>[75]</t>
+  </si>
+  <si>
+    <t>[93]</t>
+  </si>
+  <si>
+    <t>Wireless Sensor</t>
+  </si>
+  <si>
+    <t>[82]</t>
+  </si>
+  <si>
+    <t>[83]</t>
+  </si>
+  <si>
+    <t>[84]</t>
+  </si>
+  <si>
+    <t>[85]</t>
+  </si>
+  <si>
+    <t>[76]</t>
+  </si>
+  <si>
+    <t>[77]</t>
+  </si>
+  <si>
+    <t>[98]</t>
+  </si>
+  <si>
+    <t>[87]</t>
+  </si>
+  <si>
+    <t>[78]</t>
+  </si>
+  <si>
+    <t>[88]</t>
+  </si>
+  <si>
+    <t>[79]</t>
+  </si>
+  <si>
+    <t>[91]</t>
+  </si>
+  <si>
+    <t>Beacons BLE</t>
+  </si>
+  <si>
+    <t>[89]</t>
+  </si>
+  <si>
+    <t>[86]</t>
+  </si>
+  <si>
+    <t>[96]</t>
+  </si>
+  <si>
+    <t>[94]</t>
+  </si>
+  <si>
+    <t>WSS</t>
+  </si>
+  <si>
+    <t>[90]</t>
+  </si>
+  <si>
+    <t>[80]</t>
+  </si>
+  <si>
+    <t>Article - Ref</t>
   </si>
 </sst>
 </file>
@@ -441,10 +535,242 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED6E5261-8F97-4930-BE3C-F71686ABEAF4}">
+  <dimension ref="A1:B27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="2" width="29.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
